--- a/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
@@ -522,7 +522,7 @@
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>347_金边万年青_undefined_undefined_1bunch</v>
+        <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
@@ -524,6 +524,9 @@
       <c r="C11" t="str">
         <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -585,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101011113010101550</v>
+        <v>0101011113010101555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,9 +528,95 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>858_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>863_干花文竹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>846_玛格丽特_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -588,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101011113010101555</v>
+        <v>0101011113010101555203010402010101590</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
@@ -613,6 +613,9 @@
       <c r="C21" t="str">
         <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101011113010101555203010402010101590</v>
+        <v>01010111130101015552030104020101015910</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-11-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,9 +617,69 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F27" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L28"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +737,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010111130101015552030104020101015910</v>
+        <v>01010111130101015552030104020101015910109151054020</v>
       </c>
     </row>
   </sheetData>
